--- a/Supplements/mid-term-examination-final-grade.xlsx
+++ b/Supplements/mid-term-examination-final-grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/Documents/研究生课程/多核程序设计与实践（助教）/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6EEC3F-8F68-EF47-96EB-4B4F248C8F7F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C2CDA1-24A1-1C41-B34F-AADCB5ED0877}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{ABD4D23D-C9E4-DE41-8BF3-7EA34BD1D8FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>第一题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,10 +417,6 @@
   </si>
   <si>
     <t>8C8B62AB70CAD3AE0587A03A04950D72</t>
-  </si>
-  <si>
-    <t>总分（更正）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +496,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,15 +818,13 @@
   <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="51.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="13.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="15" width="13.83203125" style="1" customWidth="1"/>
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -857,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -867,32 +864,32 @@
     </row>
     <row r="2" spans="1:15" ht="22" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>8</v>
       </c>
       <c r="D2" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2">
         <f>SUM(B2:G2)</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -901,32 +898,32 @@
     </row>
     <row r="3" spans="1:15" ht="22" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(B3:G3)</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -937,32 +934,32 @@
     </row>
     <row r="4" spans="1:15" ht="22" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2">
         <v>25</v>
       </c>
       <c r="H4" s="2">
         <f>SUM(B4:G4)</f>
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -973,32 +970,32 @@
     </row>
     <row r="5" spans="1:15" ht="22" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2">
         <f>SUM(B5:G5)</f>
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1009,32 +1006,32 @@
     </row>
     <row r="6" spans="1:15" ht="22" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2">
         <f>SUM(B6:G6)</f>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1045,33 +1042,31 @@
     </row>
     <row r="7" spans="1:15" ht="22" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>12</v>
       </c>
       <c r="F7" s="2">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
         <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>25</v>
       </c>
       <c r="H7" s="2">
         <f>SUM(B7:G7)</f>
-        <v>87</v>
-      </c>
-      <c r="I7" s="2">
-        <v>95</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1081,32 +1076,32 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
         <f>SUM(B8:G8)</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I8" s="2">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1117,31 +1112,33 @@
     </row>
     <row r="9" spans="1:15" ht="22" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H9" s="2">
         <f>SUM(B9:G9)</f>
-        <v>73</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="I9" s="2">
+        <v>93</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1151,32 +1148,32 @@
     </row>
     <row r="10" spans="1:15" ht="22" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
         <f>SUM(B10:G10)</f>
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="I10" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1187,31 +1184,33 @@
     </row>
     <row r="11" spans="1:15" ht="22" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2">
         <f>SUM(B11:G11)</f>
-        <v>49</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="I11" s="2">
+        <v>93</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1221,33 +1220,31 @@
     </row>
     <row r="12" spans="1:15" ht="22" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2">
         <f>SUM(B12:G12)</f>
-        <v>70</v>
-      </c>
-      <c r="I12" s="2">
-        <v>87</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1257,32 +1254,32 @@
     </row>
     <row r="13" spans="1:15" ht="22" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H13" s="2">
         <f>SUM(B13:G13)</f>
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I13" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1293,32 +1290,32 @@
     </row>
     <row r="14" spans="1:15" ht="22" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
         <v>20</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H14" s="2">
         <f>SUM(B14:G14)</f>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1329,32 +1326,32 @@
     </row>
     <row r="15" spans="1:15" ht="22" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <f>SUM(B15:G15)</f>
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="I15" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1365,32 +1362,32 @@
     </row>
     <row r="16" spans="1:15" ht="22" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2">
         <v>13</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2">
-        <v>25</v>
       </c>
       <c r="H16" s="2">
         <f>SUM(B16:G16)</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I16" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1401,19 +1398,32 @@
     </row>
     <row r="17" spans="1:15" ht="22" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8</v>
+      </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <f>SUM(B17:G17)</f>
+        <v>74</v>
       </c>
       <c r="I17" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1424,33 +1434,31 @@
     </row>
     <row r="18" spans="1:15" ht="22" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F18" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H18" s="2">
         <f>SUM(B18:G18)</f>
-        <v>69</v>
-      </c>
-      <c r="I18" s="2">
-        <v>88</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1460,32 +1468,32 @@
     </row>
     <row r="19" spans="1:15" ht="22" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2">
         <v>9</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H19" s="2">
         <f>SUM(B19:G19)</f>
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I19" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1496,32 +1504,32 @@
     </row>
     <row r="20" spans="1:15" ht="22" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B20" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D20" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2">
         <f>SUM(B20:G20)</f>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I20" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1532,31 +1540,31 @@
     </row>
     <row r="21" spans="1:15" ht="22" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B21" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2">
         <v>14</v>
       </c>
       <c r="G21" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H21" s="2">
         <f>SUM(B21:G21)</f>
-        <v>83</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1566,32 +1574,32 @@
     </row>
     <row r="22" spans="1:15" ht="22" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2">
         <v>10</v>
       </c>
       <c r="C22" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2">
         <f>SUM(B22:G22)</f>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I22" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1602,32 +1610,32 @@
     </row>
     <row r="23" spans="1:15" ht="22" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F23" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H23" s="2">
         <f>SUM(B23:G23)</f>
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="I23" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1638,32 +1646,32 @@
     </row>
     <row r="24" spans="1:15" ht="22" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F24" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H24" s="2">
         <f>SUM(B24:G24)</f>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="I24" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1674,32 +1682,32 @@
     </row>
     <row r="25" spans="1:15" ht="22" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
         <v>18</v>
       </c>
       <c r="E25" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G25" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H25" s="2">
         <f>SUM(B25:G25)</f>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="I25" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1710,33 +1718,31 @@
     </row>
     <row r="26" spans="1:15" ht="22" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B26" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2">
         <v>11</v>
-      </c>
-      <c r="F26" s="2">
-        <v>14</v>
       </c>
       <c r="G26" s="2">
         <v>25</v>
       </c>
       <c r="H26" s="2">
         <f>SUM(B26:G26)</f>
-        <v>83</v>
-      </c>
-      <c r="I26" s="2">
-        <v>93</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1746,32 +1752,32 @@
     </row>
     <row r="27" spans="1:15" ht="22" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H27" s="2">
         <f>SUM(B27:G27)</f>
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I27" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1782,32 +1788,32 @@
     </row>
     <row r="28" spans="1:15" ht="22" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B28" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>20</v>
       </c>
       <c r="E28" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H28" s="2">
         <f>SUM(B28:G28)</f>
         <v>86</v>
       </c>
       <c r="I28" s="2">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1818,32 +1824,32 @@
     </row>
     <row r="29" spans="1:15" ht="22" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B29" s="2">
         <v>8</v>
       </c>
       <c r="C29" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H29" s="2">
         <f>SUM(B29:G29)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1854,32 +1860,32 @@
     </row>
     <row r="30" spans="1:15" ht="22" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E30" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
         <v>20</v>
       </c>
       <c r="H30" s="2">
         <f>SUM(B30:G30)</f>
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="I30" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -1890,32 +1896,32 @@
     </row>
     <row r="31" spans="1:15" ht="22" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="B31" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2">
         <v>12</v>
       </c>
       <c r="E31" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F31" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G31" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H31" s="2">
         <f>SUM(B31:G31)</f>
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="I31" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -1926,32 +1932,32 @@
     </row>
     <row r="32" spans="1:15" ht="22" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2">
         <f>SUM(B32:G32)</f>
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I32" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -1962,32 +1968,32 @@
     </row>
     <row r="33" spans="1:15" ht="22" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C33" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E33" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G33" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H33" s="2">
         <f>SUM(B33:G33)</f>
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I33" s="2">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2034,31 +2040,33 @@
     </row>
     <row r="35" spans="1:15" ht="22" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2">
         <v>9</v>
       </c>
       <c r="C35" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D35" s="2">
         <v>20</v>
       </c>
       <c r="E35" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2">
         <v>11</v>
       </c>
       <c r="G35" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H35" s="2">
         <f>SUM(B35:G35)</f>
-        <v>88</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="I35" s="2">
+        <v>87</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2068,33 +2076,31 @@
     </row>
     <row r="36" spans="1:15" ht="22" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E36" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H36" s="2">
         <f>SUM(B36:G36)</f>
-        <v>19</v>
-      </c>
-      <c r="I36" s="2">
-        <v>69</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2104,32 +2110,32 @@
     </row>
     <row r="37" spans="1:15" ht="22" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B37" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G37" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H37" s="2">
         <f>SUM(B37:G37)</f>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I37" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -2140,32 +2146,32 @@
     </row>
     <row r="38" spans="1:15" ht="22" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="B38" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H38" s="2">
         <f>SUM(B38:G38)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I38" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2176,32 +2182,32 @@
     </row>
     <row r="39" spans="1:15" ht="22" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H39" s="2">
         <f>SUM(B39:G39)</f>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I39" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -2212,32 +2218,32 @@
     </row>
     <row r="40" spans="1:15" ht="22" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C40" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G40" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H40" s="2">
         <f>SUM(B40:G40)</f>
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="I40" s="2">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -2248,32 +2254,32 @@
     </row>
     <row r="41" spans="1:15" ht="22" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B41" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41" s="2">
         <v>19</v>
       </c>
       <c r="E41" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F41" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G41" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H41" s="2">
         <f>SUM(B41:G41)</f>
+        <v>62</v>
+      </c>
+      <c r="I41" s="2">
         <v>85</v>
-      </c>
-      <c r="I41" s="2">
-        <v>90</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2284,31 +2290,33 @@
     </row>
     <row r="42" spans="1:15" ht="22" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F42" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H42" s="2">
         <f>SUM(B42:G42)</f>
-        <v>77</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I42" s="2">
+        <v>75</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2318,32 +2326,32 @@
     </row>
     <row r="43" spans="1:15" ht="22" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D43" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F43" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G43" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H43" s="2">
         <f>SUM(B43:G43)</f>
-        <v>36</v>
-      </c>
-      <c r="I43" s="2">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="I43" s="4">
+        <v>94</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -2354,33 +2362,31 @@
     </row>
     <row r="44" spans="1:15" ht="22" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2">
         <v>9</v>
       </c>
       <c r="C44" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E44" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F44" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G44" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H44" s="2">
         <f>SUM(B44:G44)</f>
-        <v>47</v>
-      </c>
-      <c r="I44" s="2">
-        <v>78</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="I44" s="3"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2426,32 +2432,32 @@
     </row>
     <row r="46" spans="1:15" ht="22" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="B46" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D46" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F46" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
         <f>SUM(B46:G46)</f>
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="I46" s="2">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -2462,33 +2468,31 @@
     </row>
     <row r="47" spans="1:15" ht="22" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E47" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F47" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H47" s="2">
         <f>SUM(B47:G47)</f>
-        <v>81</v>
-      </c>
-      <c r="I47" s="2">
-        <v>92</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -2498,32 +2502,32 @@
     </row>
     <row r="48" spans="1:15" ht="22" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C48" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F48" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H48" s="2">
         <f>SUM(B48:G48)</f>
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I48" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -2534,32 +2538,32 @@
     </row>
     <row r="49" spans="1:15" ht="22" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B49" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2">
+        <v>10</v>
+      </c>
+      <c r="F49" s="2">
         <v>5</v>
       </c>
-      <c r="D49" s="2">
-        <v>14</v>
-      </c>
-      <c r="E49" s="2">
-        <v>5</v>
-      </c>
-      <c r="F49" s="2">
-        <v>2</v>
-      </c>
       <c r="G49" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H49" s="2">
         <f>SUM(B49:G49)</f>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I49" s="2">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -2570,29 +2574,29 @@
     </row>
     <row r="50" spans="1:15" ht="22" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
         <v>10</v>
       </c>
       <c r="C50" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2">
         <v>14</v>
-      </c>
-      <c r="F50" s="2">
-        <v>12</v>
       </c>
       <c r="G50" s="2">
         <v>20</v>
       </c>
       <c r="H50" s="2">
         <f>SUM(B50:G50)</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I50" s="2">
         <v>89</v>
@@ -2606,33 +2610,31 @@
     </row>
     <row r="51" spans="1:15" ht="22" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2">
         <v>5</v>
       </c>
-      <c r="D51" s="2">
-        <v>18</v>
-      </c>
-      <c r="E51" s="2">
-        <v>10</v>
-      </c>
-      <c r="F51" s="2">
-        <v>14</v>
-      </c>
       <c r="G51" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" s="2">
         <f>SUM(B51:G51)</f>
-        <v>72</v>
-      </c>
-      <c r="I51" s="2">
-        <v>89</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -2642,32 +2644,32 @@
     </row>
     <row r="52" spans="1:15" ht="22" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B52" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2">
         <v>11</v>
       </c>
-      <c r="D52" s="2">
-        <v>20</v>
-      </c>
-      <c r="E52" s="2">
-        <v>12</v>
-      </c>
-      <c r="F52" s="2">
-        <v>14</v>
-      </c>
       <c r="G52" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H52" s="2">
         <f>SUM(B52:G52)</f>
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="I52" s="2">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2678,32 +2680,32 @@
     </row>
     <row r="53" spans="1:15" ht="22" customHeight="1">
       <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="2">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5</v>
+      </c>
+      <c r="F53" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" s="2">
         <v>25</v>
-      </c>
-      <c r="B53" s="2">
-        <v>8</v>
-      </c>
-      <c r="C53" s="2">
-        <v>10</v>
-      </c>
-      <c r="D53" s="2">
-        <v>15</v>
-      </c>
-      <c r="E53" s="2">
-        <v>11</v>
-      </c>
-      <c r="F53" s="2">
-        <v>12</v>
-      </c>
-      <c r="G53" s="2">
-        <v>2</v>
       </c>
       <c r="H53" s="2">
         <f>SUM(B53:G53)</f>
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I53" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -2714,32 +2716,32 @@
     </row>
     <row r="54" spans="1:15" ht="22" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B54" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E54" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F54" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H54" s="2">
         <f>SUM(B54:G54)</f>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I54" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -2750,32 +2752,32 @@
     </row>
     <row r="55" spans="1:15" ht="22" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D55" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F55" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G55" s="2">
         <v>25</v>
       </c>
       <c r="H55" s="2">
         <f>SUM(B55:G55)</f>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I55" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2786,32 +2788,32 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B56" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D56" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E56" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F56" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H56" s="2">
         <f>SUM(B56:G56)</f>
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="I56" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -2822,25 +2824,25 @@
     </row>
     <row r="57" spans="1:15" ht="35" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="B57" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F57" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G57" s="2">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H57" s="2">
         <f>SUM(B57:G57)</f>
@@ -2858,32 +2860,32 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="3" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C58" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D58" s="2">
         <v>18</v>
       </c>
       <c r="E58" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F58" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G58" s="2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H58" s="2">
         <f>SUM(B58:G58)</f>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I58" s="2">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2894,31 +2896,33 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B59" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C59" s="2">
+        <v>8</v>
+      </c>
+      <c r="D59" s="2">
+        <v>18</v>
+      </c>
+      <c r="E59" s="2">
         <v>5</v>
       </c>
-      <c r="D59" s="2">
-        <v>20</v>
-      </c>
-      <c r="E59" s="2">
-        <v>13</v>
-      </c>
       <c r="F59" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G59" s="2">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H59" s="2">
         <f>SUM(B59:G59)</f>
-        <v>81</v>
-      </c>
-      <c r="I59" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="I59" s="2">
+        <v>56</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -2928,32 +2932,32 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C60" s="2">
+        <v>8</v>
+      </c>
+      <c r="D60" s="2">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2">
         <v>12</v>
-      </c>
-      <c r="D60" s="2">
-        <v>18</v>
-      </c>
-      <c r="E60" s="2">
-        <v>5</v>
       </c>
       <c r="F60" s="2">
         <v>12</v>
       </c>
       <c r="G60" s="2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H60" s="2">
         <f>SUM(B60:G60)</f>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I60" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
@@ -2964,32 +2968,32 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="3" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E61" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" s="2">
         <v>14</v>
       </c>
       <c r="G61" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H61" s="2">
         <f>SUM(B61:G61)</f>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I61" s="2">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
@@ -3000,32 +3004,32 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D62" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2">
         <f>SUM(B62:G62)</f>
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="I62" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -3072,32 +3076,32 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F64" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H64" s="2">
         <f>SUM(B64:G64)</f>
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="I64" s="2">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -3108,31 +3112,33 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C65" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E65" s="2">
         <v>10</v>
       </c>
       <c r="F65" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H65" s="2">
         <f>SUM(B65:G65)</f>
-        <v>64</v>
-      </c>
-      <c r="I65" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="I65" s="2">
+        <v>84</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -3142,32 +3148,32 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="3" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="B66" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C66" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E66" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F66" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G66" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H66" s="2">
         <f>SUM(B66:G66)</f>
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I66" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3178,32 +3184,32 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B67" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C67" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D67" s="2">
+        <v>17</v>
+      </c>
+      <c r="E67" s="2">
+        <v>9</v>
+      </c>
+      <c r="F67" s="2">
         <v>11</v>
       </c>
-      <c r="E67" s="2">
-        <v>2</v>
-      </c>
-      <c r="F67" s="2">
-        <v>0</v>
-      </c>
       <c r="G67" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H67" s="2">
         <f>SUM(B67:G67)</f>
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I67" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3214,32 +3220,32 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="3" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="B68" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D68" s="2">
         <v>17</v>
       </c>
       <c r="E68" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F68" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G68" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H68" s="2">
         <f>SUM(B68:G68)</f>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I68" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -3250,7 +3256,7 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2">
         <v>9</v>
@@ -3259,23 +3265,23 @@
         <v>8</v>
       </c>
       <c r="D69" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E69" s="2">
         <v>10</v>
       </c>
       <c r="F69" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G69" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H69" s="2">
         <f>SUM(B69:G69)</f>
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I69" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
@@ -3286,32 +3292,32 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C70" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E70" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F70" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G70" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H70" s="2">
         <f>SUM(B70:G70)</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I70" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3322,32 +3328,32 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B71" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2">
+        <v>8</v>
+      </c>
+      <c r="D71" s="2">
+        <v>20</v>
+      </c>
+      <c r="E71" s="2">
         <v>2</v>
       </c>
-      <c r="D71" s="2">
-        <v>13</v>
-      </c>
-      <c r="E71" s="2">
-        <v>12</v>
-      </c>
       <c r="F71" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G71" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H71" s="2">
         <f>SUM(B71:G71)</f>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I71" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
@@ -3358,31 +3364,33 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B72" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72" s="2">
+        <v>20</v>
+      </c>
+      <c r="E72" s="2">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2">
         <v>15</v>
-      </c>
-      <c r="E72" s="2">
-        <v>12</v>
-      </c>
-      <c r="F72" s="2">
-        <v>12</v>
       </c>
       <c r="G72" s="2">
         <v>15</v>
       </c>
       <c r="H72" s="2">
         <f>SUM(B72:G72)</f>
-        <v>72</v>
-      </c>
-      <c r="I72" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="I72" s="2">
+        <v>91</v>
+      </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -3392,32 +3400,32 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D73" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E73" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F73" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="H73" s="2">
         <f>SUM(B73:G73)</f>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I73" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
@@ -3428,32 +3436,19 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
         <v>60</v>
-      </c>
-      <c r="B74" s="2">
-        <v>9</v>
-      </c>
-      <c r="C74" s="2">
-        <v>5</v>
-      </c>
-      <c r="D74" s="2">
-        <v>17</v>
-      </c>
-      <c r="E74" s="2">
-        <v>12</v>
-      </c>
-      <c r="F74" s="2">
-        <v>11</v>
-      </c>
-      <c r="G74" s="2">
-        <v>25</v>
-      </c>
-      <c r="H74" s="2">
-        <f>SUM(B74:G74)</f>
-        <v>79</v>
-      </c>
-      <c r="I74" s="2">
-        <v>92</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
@@ -3464,32 +3459,32 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B75" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E75" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F75" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G75" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H75" s="2">
         <f>SUM(B75:G75)</f>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I75" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -3500,32 +3495,32 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="3" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B76" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C76" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E76" s="2">
+        <v>3</v>
+      </c>
+      <c r="F76" s="2">
         <v>5</v>
       </c>
-      <c r="F76" s="2">
-        <v>3</v>
-      </c>
       <c r="G76" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H76" s="2">
         <f>SUM(B76:G76)</f>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I76" s="2">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -3536,32 +3531,32 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="3" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B77" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C77" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D77" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E77" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F77" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H77" s="2">
         <f>SUM(B77:G77)</f>
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="I77" s="2">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -3572,32 +3567,32 @@
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="3" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B78" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C78" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3</v>
+      </c>
+      <c r="F78" s="2">
+        <v>9</v>
+      </c>
+      <c r="G78" s="2">
         <v>20</v>
-      </c>
-      <c r="E78" s="2">
-        <v>8</v>
-      </c>
-      <c r="F78" s="2">
-        <v>14</v>
-      </c>
-      <c r="G78" s="2">
-        <v>14</v>
       </c>
       <c r="H78" s="2">
         <f>SUM(B78:G78)</f>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I78" s="2">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -3608,32 +3603,32 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B79" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D79" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F79" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G79" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H79" s="2">
         <f>SUM(B79:G79)</f>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I79" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -3644,32 +3639,32 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="3" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C80" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D80" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E80" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F80" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H80" s="2">
         <f>SUM(B80:G80)</f>
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="I80" s="2">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -3680,19 +3675,32 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="B81" s="2">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2">
+        <v>6</v>
+      </c>
+      <c r="D81" s="2">
+        <v>17</v>
+      </c>
+      <c r="E81" s="2">
+        <v>7</v>
+      </c>
+      <c r="F81" s="2">
+        <v>11</v>
+      </c>
+      <c r="G81" s="2">
+        <v>19</v>
+      </c>
       <c r="H81" s="2">
-        <v>0</v>
+        <f>SUM(B81:G81)</f>
+        <v>68</v>
       </c>
       <c r="I81" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -3703,32 +3711,32 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B82" s="2">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2">
         <v>7</v>
-      </c>
-      <c r="C82" s="2">
-        <v>8</v>
       </c>
       <c r="D82" s="2">
         <v>18</v>
       </c>
       <c r="E82" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F82" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G82" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H82" s="2">
         <f>SUM(B82:G82)</f>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I82" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -3739,32 +3747,32 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="3" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C83" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D83" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E83" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F83" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H83" s="2">
         <f>SUM(B83:G83)</f>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I83" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -3775,32 +3783,32 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B84" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E84" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F84" s="2">
         <v>14</v>
       </c>
       <c r="G84" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H84" s="2">
         <f>SUM(B84:G84)</f>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I84" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -3811,32 +3819,19 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B85" s="2">
-        <v>8</v>
-      </c>
-      <c r="C85" s="2">
-        <v>3</v>
-      </c>
-      <c r="D85" s="2">
-        <v>9</v>
-      </c>
-      <c r="E85" s="2">
-        <v>11</v>
-      </c>
-      <c r="F85" s="2">
-        <v>11</v>
-      </c>
-      <c r="G85" s="2">
-        <v>20</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="2">
-        <f>SUM(B85:G85)</f>
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I85" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
@@ -3847,32 +3842,32 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="3" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C86" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E86" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F86" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G86" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H86" s="2">
         <f>SUM(B86:G86)</f>
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="I86" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
@@ -3883,32 +3878,32 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="3" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="B87" s="2">
         <v>7</v>
       </c>
       <c r="C87" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2">
         <v>20</v>
       </c>
       <c r="E87" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F87" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G87" s="2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H87" s="2">
         <f>SUM(B87:G87)</f>
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="I87" s="2">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -3919,32 +3914,32 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="3" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B88" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88" s="2">
         <v>20</v>
       </c>
       <c r="E88" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F88" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G88" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H88" s="2">
         <f>SUM(B88:G88)</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I88" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -3955,32 +3950,32 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="3" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="B89" s="2">
         <v>8</v>
       </c>
       <c r="C89" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E89" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F89" s="2">
+        <v>12</v>
+      </c>
+      <c r="G89" s="2">
         <v>2</v>
-      </c>
-      <c r="G89" s="2">
-        <v>25</v>
       </c>
       <c r="H89" s="2">
         <f>SUM(B89:G89)</f>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I89" s="2">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -3991,33 +3986,31 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="3" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="B90" s="2">
         <v>7</v>
       </c>
       <c r="C90" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E90" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F90" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G90" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H90" s="2">
         <f>SUM(B90:G90)</f>
-        <v>62</v>
-      </c>
-      <c r="I90" s="2">
-        <v>85</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -4027,32 +4020,32 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C91" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D91" s="2">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
         <v>11</v>
-      </c>
-      <c r="E91" s="2">
-        <v>10</v>
-      </c>
-      <c r="F91" s="2">
-        <v>9</v>
-      </c>
-      <c r="G91" s="2">
-        <v>25</v>
       </c>
       <c r="H91" s="2">
         <f>SUM(B91:G91)</f>
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="I91" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -4063,32 +4056,32 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="3" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2">
         <v>7</v>
       </c>
-      <c r="C92" s="2">
-        <v>3</v>
-      </c>
       <c r="D92" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E92" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F92" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G92" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H92" s="2">
         <f>SUM(B92:G92)</f>
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="I92" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -4099,13 +4092,13 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="3" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B93" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D93" s="2">
         <v>20</v>
@@ -4114,17 +4107,17 @@
         <v>10</v>
       </c>
       <c r="F93" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G93" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H93" s="2">
         <f>SUM(B93:G93)</f>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I93" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
@@ -4135,31 +4128,33 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B94" s="2">
         <v>7</v>
       </c>
       <c r="C94" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2">
         <v>20</v>
       </c>
       <c r="E94" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F94" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G94" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H94" s="2">
         <f>SUM(B94:G94)</f>
-        <v>65</v>
-      </c>
-      <c r="I94" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="I94" s="2">
+        <v>95</v>
+      </c>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -4169,32 +4164,32 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="3" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B95" s="2">
         <v>8</v>
       </c>
       <c r="C95" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D95" s="2">
+        <v>18</v>
+      </c>
+      <c r="E95" s="2">
+        <v>10</v>
+      </c>
+      <c r="F95" s="2">
+        <v>14</v>
+      </c>
+      <c r="G95" s="2">
         <v>17</v>
-      </c>
-      <c r="E95" s="2">
-        <v>12</v>
-      </c>
-      <c r="F95" s="2">
-        <v>2</v>
-      </c>
-      <c r="G95" s="2">
-        <v>20</v>
       </c>
       <c r="H95" s="2">
         <f>SUM(B95:G95)</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I95" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
@@ -4205,16 +4200,16 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="3" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E96" s="2">
         <v>10</v>
@@ -4223,14 +4218,14 @@
         <v>14</v>
       </c>
       <c r="G96" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H96" s="2">
         <f>SUM(B96:G96)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I96" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
@@ -4241,29 +4236,29 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B97" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D97" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E97" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F97" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G97" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H97" s="2">
         <f>SUM(B97:G97)</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I97" s="2">
         <v>88</v>
@@ -4277,32 +4272,32 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B98" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C98" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D98" s="2">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E98" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F98" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H98" s="2">
         <f>SUM(B98:G98)</f>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I98" s="2">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
@@ -4313,32 +4308,32 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B99" s="2">
+        <v>10</v>
+      </c>
+      <c r="C99" s="2">
         <v>7</v>
       </c>
-      <c r="C99" s="2">
-        <v>3</v>
-      </c>
       <c r="D99" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E99" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F99" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G99" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H99" s="2">
         <f>SUM(B99:G99)</f>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I99" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
@@ -4349,32 +4344,32 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="3" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C100" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D100" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E100" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F100" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G100" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H100" s="2">
         <f>SUM(B100:G100)</f>
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I100" s="2">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
@@ -4385,32 +4380,32 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="3" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="B101" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C101" s="2">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2">
+        <v>6</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
         <v>13</v>
-      </c>
-      <c r="D101" s="2">
-        <v>18</v>
-      </c>
-      <c r="E101" s="2">
-        <v>12</v>
-      </c>
-      <c r="F101" s="2">
-        <v>9</v>
-      </c>
-      <c r="G101" s="2">
-        <v>19</v>
       </c>
       <c r="H101" s="2">
         <f>SUM(B101:G101)</f>
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="I101" s="2">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
@@ -4421,32 +4416,32 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B102" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C102" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D102" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E102" s="2">
         <v>12</v>
       </c>
       <c r="F102" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G102" s="2">
         <v>23</v>
       </c>
       <c r="H102" s="2">
         <f>SUM(B102:G102)</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I102" s="2">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4457,16 +4452,16 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C103" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D103" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E103" s="2">
         <v>6</v>
@@ -4475,14 +4470,14 @@
         <v>0</v>
       </c>
       <c r="G103" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H103" s="2">
         <f>SUM(B103:G103)</f>
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="I103" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -4493,29 +4488,29 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="3" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B104" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C104" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E104" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F104" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G104" s="2">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H104" s="2">
         <f>SUM(B104:G104)</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I104" s="2">
         <v>87</v>
@@ -4529,32 +4524,32 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B105" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D105" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E105" s="2">
         <v>5</v>
       </c>
       <c r="F105" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G105" s="2">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H105" s="2">
         <f>SUM(B105:G105)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I105" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -4565,32 +4560,32 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D106" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E106" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F106" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G106" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H106" s="2">
         <f>SUM(B106:G106)</f>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I106" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -4601,33 +4596,31 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="3" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B107" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C107" s="2">
         <v>7</v>
       </c>
       <c r="D107" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E107" s="2">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F107" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G107" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H107" s="2">
         <f>SUM(B107:G107)</f>
-        <v>57</v>
-      </c>
-      <c r="I107" s="2">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -4637,32 +4630,32 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B108" s="2">
         <v>9</v>
       </c>
       <c r="C108" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D108" s="2">
+        <v>16</v>
+      </c>
+      <c r="E108" s="2">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2">
+        <v>12</v>
+      </c>
+      <c r="G108" s="2">
         <v>20</v>
-      </c>
-      <c r="E108" s="2">
-        <v>14</v>
-      </c>
-      <c r="F108" s="2">
-        <v>11</v>
-      </c>
-      <c r="G108" s="2">
-        <v>22</v>
       </c>
       <c r="H108" s="2">
         <f>SUM(B108:G108)</f>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I108" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
@@ -4673,32 +4666,32 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B109" s="2">
         <v>9</v>
       </c>
       <c r="C109" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D109" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E109" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F109" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G109" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H109" s="2">
         <f>SUM(B109:G109)</f>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I109" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
@@ -4709,31 +4702,33 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B110" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C110" s="2">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2">
         <v>6</v>
       </c>
-      <c r="D110" s="2">
-        <v>8</v>
-      </c>
       <c r="E110" s="2">
         <v>10</v>
       </c>
       <c r="F110" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G110" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H110" s="2">
         <f>SUM(B110:G110)</f>
-        <v>39</v>
-      </c>
-      <c r="I110" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="I110" s="2">
+        <v>78</v>
+      </c>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
@@ -4743,32 +4738,32 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B111" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E111" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F111" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G111" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H111" s="2">
         <f>SUM(B111:G111)</f>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I111" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
@@ -4779,32 +4774,32 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="3" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B112" s="2">
         <v>8</v>
       </c>
       <c r="C112" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D112" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G112" s="2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H112" s="2">
         <f>SUM(B112:G112)</f>
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I112" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -4815,32 +4810,32 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B113" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C113" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D113" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E113" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F113" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G113" s="2">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H113" s="2">
         <f>SUM(B113:G113)</f>
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I113" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -4851,32 +4846,32 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B114" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E114" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F114" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G114" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H114" s="2">
         <f>SUM(B114:G114)</f>
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="I114" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -4887,32 +4882,32 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2">
+        <v>8</v>
+      </c>
+      <c r="C115" s="2">
+        <v>8</v>
+      </c>
+      <c r="D115" s="2">
+        <v>11</v>
+      </c>
+      <c r="E115" s="2">
         <v>6</v>
-      </c>
-      <c r="C115" s="2">
-        <v>4</v>
-      </c>
-      <c r="D115" s="2">
-        <v>15</v>
-      </c>
-      <c r="E115" s="2">
-        <v>10</v>
       </c>
       <c r="F115" s="2">
         <v>14</v>
       </c>
       <c r="G115" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H115" s="2">
         <f>SUM(B115:G115)</f>
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I115" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
@@ -4923,31 +4918,33 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B116" s="2">
         <v>9</v>
       </c>
       <c r="C116" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D116" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E116" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F116" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G116" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H116" s="2">
         <f>SUM(B116:G116)</f>
-        <v>81</v>
-      </c>
-      <c r="I116" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="I116" s="2">
+        <v>77</v>
+      </c>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
@@ -4957,29 +4954,29 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="3" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="B117" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C117" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D117" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E117" s="2">
         <v>9</v>
       </c>
       <c r="F117" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G117" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H117" s="2">
         <f>SUM(B117:G117)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I117" s="2">
         <v>91</v>
@@ -4993,32 +4990,32 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="3" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D118" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E118" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F118" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G118" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H118" s="2">
         <f>SUM(B118:G118)</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I118" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -5029,32 +5026,32 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B119" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D119" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E119" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F119" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G119" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H119" s="2">
         <f>SUM(B119:G119)</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I119" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
@@ -5065,32 +5062,32 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="3" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="B120" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C120" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D120" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F120" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G120" s="2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H120" s="2">
         <f>SUM(B120:G120)</f>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I120" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
@@ -5101,32 +5098,32 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B121" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D121" s="2">
         <v>17</v>
       </c>
       <c r="E121" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F121" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G121" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H121" s="2">
         <f>SUM(B121:G121)</f>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I121" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
